--- a/data/UrbanRural.xlsx
+++ b/data/UrbanRural.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnavy\Documents\NSS\Capstone\geographic_desparities\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C113D55C-6E0D-44A1-A3D0-1A27F99DA361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CA3278-3681-4E44-B9B6-3AB80C13988D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,10 +621,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -670,7 +666,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -978,15 +974,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
